--- a/Code/Results/Cases/Case_9_29/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_29/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.41506188741114</v>
+        <v>18.17479356931992</v>
       </c>
       <c r="C2">
-        <v>13.11636096815539</v>
+        <v>13.14183372740646</v>
       </c>
       <c r="D2">
-        <v>4.732485792197789</v>
+        <v>4.7885382726224</v>
       </c>
       <c r="E2">
-        <v>9.293944937564664</v>
+        <v>9.160089020783968</v>
       </c>
       <c r="F2">
-        <v>17.99610640033821</v>
+        <v>17.58024618590218</v>
       </c>
       <c r="G2">
-        <v>22.61751583671839</v>
+        <v>21.22838636895231</v>
       </c>
       <c r="H2">
-        <v>1.894179449402605</v>
+        <v>1.851803306985634</v>
       </c>
       <c r="I2">
-        <v>2.504180503770989</v>
+        <v>2.502179225838155</v>
       </c>
       <c r="J2">
-        <v>8.695572726691093</v>
+        <v>9.09938484242371</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.00879509430674</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.646648426048765</v>
       </c>
       <c r="N2">
-        <v>6.672310180980795</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.72312731134187</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.64419849070912</v>
+        <v>6.770608769089277</v>
       </c>
       <c r="Q2">
-        <v>14.32686565825663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.64308659018266</v>
+      </c>
+      <c r="R2">
+        <v>12.63625418394916</v>
+      </c>
+      <c r="S2">
+        <v>13.9934096533412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.19682262382499</v>
+        <v>17.00484423074722</v>
       </c>
       <c r="C3">
-        <v>12.74332443789016</v>
+        <v>12.67769872855989</v>
       </c>
       <c r="D3">
-        <v>4.547407690678122</v>
+        <v>4.585703035865009</v>
       </c>
       <c r="E3">
-        <v>9.228517670342779</v>
+        <v>9.10728976353294</v>
       </c>
       <c r="F3">
-        <v>17.49859820933317</v>
+        <v>17.13201294344486</v>
       </c>
       <c r="G3">
-        <v>21.91755829465632</v>
+        <v>20.60842826890191</v>
       </c>
       <c r="H3">
-        <v>2.070643527400853</v>
+        <v>2.015947768542902</v>
       </c>
       <c r="I3">
-        <v>2.649634175476806</v>
+        <v>2.576581862793145</v>
       </c>
       <c r="J3">
-        <v>8.665729845687952</v>
+        <v>9.056804534010702</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.15030230876743</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.630007992973324</v>
       </c>
       <c r="N3">
-        <v>6.516663404335018</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.17866328271288</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.72071969887205</v>
+        <v>6.617168743707932</v>
       </c>
       <c r="Q3">
-        <v>14.14043918536193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.10720940276081</v>
+      </c>
+      <c r="R3">
+        <v>12.69003998696122</v>
+      </c>
+      <c r="S3">
+        <v>13.84214653799641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.40031178378658</v>
+        <v>16.23974607245614</v>
       </c>
       <c r="C4">
-        <v>12.5090357746123</v>
+        <v>12.38603691161052</v>
       </c>
       <c r="D4">
-        <v>4.429489605376865</v>
+        <v>4.456413553290771</v>
       </c>
       <c r="E4">
-        <v>9.186810593419379</v>
+        <v>9.073524123171593</v>
       </c>
       <c r="F4">
-        <v>17.19409677165817</v>
+        <v>16.85717029942174</v>
       </c>
       <c r="G4">
-        <v>21.48683882993962</v>
+        <v>20.22871615716878</v>
       </c>
       <c r="H4">
-        <v>2.183027416806037</v>
+        <v>2.120526986738013</v>
       </c>
       <c r="I4">
-        <v>2.743231802397876</v>
+        <v>2.660310504393963</v>
       </c>
       <c r="J4">
-        <v>8.650284158461256</v>
+        <v>9.03154236950536</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.23891099368905</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.639695150759707</v>
       </c>
       <c r="N4">
-        <v>6.41931094124052</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>10.83038774214696</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.77018989999326</v>
+        <v>6.521521069024649</v>
       </c>
       <c r="Q4">
-        <v>14.0305358438036</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.76413229601248</v>
+      </c>
+      <c r="R4">
+        <v>12.72596214067703</v>
+      </c>
+      <c r="S4">
+        <v>13.75288502618172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.05836438830994</v>
+        <v>15.91108611977377</v>
       </c>
       <c r="C5">
-        <v>12.41788973486256</v>
+        <v>12.27172919307263</v>
       </c>
       <c r="D5">
-        <v>4.381583020224114</v>
+        <v>4.403785208459638</v>
       </c>
       <c r="E5">
-        <v>9.16838965116013</v>
+        <v>9.058445536329348</v>
       </c>
       <c r="F5">
-        <v>17.06395889330091</v>
+        <v>16.73896698890236</v>
       </c>
       <c r="G5">
-        <v>21.29953946522652</v>
+        <v>20.06244578591674</v>
       </c>
       <c r="H5">
-        <v>2.230150737528453</v>
+        <v>2.164400188692175</v>
       </c>
       <c r="I5">
-        <v>2.785467876721296</v>
+        <v>2.699016715511069</v>
       </c>
       <c r="J5">
-        <v>8.642819935129802</v>
+        <v>9.019625060349675</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.27118589656047</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.64604318346899</v>
       </c>
       <c r="N5">
-        <v>6.379805591020695</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>10.68384332751182</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.79163627678145</v>
+        <v>6.482800596634053</v>
       </c>
       <c r="Q5">
-        <v>13.9820969093827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.61968346896585</v>
+      </c>
+      <c r="R5">
+        <v>12.74207590901043</v>
+      </c>
+      <c r="S5">
+        <v>13.71265834334083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.99459147042022</v>
+        <v>15.84958909412591</v>
       </c>
       <c r="C6">
-        <v>12.40953415780886</v>
+        <v>12.26015867805453</v>
       </c>
       <c r="D6">
-        <v>4.375022572608949</v>
+        <v>4.396462222884991</v>
       </c>
       <c r="E6">
-        <v>9.164046689298059</v>
+        <v>9.054733230499085</v>
       </c>
       <c r="F6">
-        <v>17.03446811126998</v>
+        <v>16.71148993192714</v>
       </c>
       <c r="G6">
-        <v>21.2540231863169</v>
+        <v>20.02024007468867</v>
       </c>
       <c r="H6">
-        <v>2.238403134089181</v>
+        <v>2.17209959322773</v>
       </c>
       <c r="I6">
-        <v>2.796430789119834</v>
+        <v>2.710077103588689</v>
       </c>
       <c r="J6">
-        <v>8.639321278427399</v>
+        <v>9.015403389526048</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.2713609719745</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.644238206146888</v>
       </c>
       <c r="N6">
-        <v>6.373936578039621</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10.65777611272256</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.79606299391985</v>
+        <v>6.477066900816866</v>
       </c>
       <c r="Q6">
-        <v>13.96823192882378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.59396534068254</v>
+      </c>
+      <c r="R6">
+        <v>12.74573138330024</v>
+      </c>
+      <c r="S6">
+        <v>13.70020765087754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.3790917324451</v>
+        <v>16.21305865570599</v>
       </c>
       <c r="C7">
-        <v>12.52642616885158</v>
+        <v>12.39988146826968</v>
       </c>
       <c r="D7">
-        <v>4.432785452572993</v>
+        <v>4.462395266886066</v>
       </c>
       <c r="E7">
-        <v>9.183161070431463</v>
+        <v>9.070070059080514</v>
       </c>
       <c r="F7">
-        <v>17.17093270017229</v>
+        <v>16.82079549783431</v>
       </c>
       <c r="G7">
-        <v>21.44532684191306</v>
+        <v>20.28030945779615</v>
       </c>
       <c r="H7">
-        <v>2.184637814430518</v>
+        <v>2.122530713050114</v>
       </c>
       <c r="I7">
-        <v>2.754086822247164</v>
+        <v>2.673408090158216</v>
       </c>
       <c r="J7">
-        <v>8.6439092020254</v>
+        <v>8.985845569487648</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.22064754522158</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.627639501647332</v>
       </c>
       <c r="N7">
-        <v>6.420724607453451</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>10.82429830374707</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.7728117774801</v>
+        <v>6.52266131149894</v>
       </c>
       <c r="Q7">
-        <v>14.01385974569997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.7558579907234</v>
+      </c>
+      <c r="R7">
+        <v>12.72982904471023</v>
+      </c>
+      <c r="S7">
+        <v>13.7265695402269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.98472922082161</v>
+        <v>17.74326340992243</v>
       </c>
       <c r="C8">
-        <v>13.01302180716038</v>
+        <v>12.99368020419319</v>
       </c>
       <c r="D8">
-        <v>4.67460422242793</v>
+        <v>4.733271959600932</v>
       </c>
       <c r="E8">
-        <v>9.267370762060775</v>
+        <v>9.138070465147413</v>
       </c>
       <c r="F8">
-        <v>17.79710440912638</v>
+        <v>17.35511065961903</v>
       </c>
       <c r="G8">
-        <v>22.32687762358864</v>
+        <v>21.2641730565675</v>
       </c>
       <c r="H8">
-        <v>1.955410036282216</v>
+        <v>1.910231986393369</v>
       </c>
       <c r="I8">
-        <v>2.566741123714379</v>
+        <v>2.507953375534481</v>
       </c>
       <c r="J8">
-        <v>8.676456804941909</v>
+        <v>8.94807131000978</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.02586927182098</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.611279504199954</v>
       </c>
       <c r="N8">
-        <v>6.621567451819771</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>11.53321051072676</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.67346777848956</v>
+        <v>6.719686731755744</v>
       </c>
       <c r="Q8">
-        <v>14.24083677266104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.449175723895</v>
+      </c>
+      <c r="R8">
+        <v>12.66175545092444</v>
+      </c>
+      <c r="S8">
+        <v>13.88749609519043</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.77730456691219</v>
+        <v>20.42245732292652</v>
       </c>
       <c r="C9">
-        <v>13.8908832485063</v>
+        <v>14.08381132062972</v>
       </c>
       <c r="D9">
-        <v>5.106941298092422</v>
+        <v>5.208597968088489</v>
       </c>
       <c r="E9">
-        <v>9.426419198387567</v>
+        <v>9.266577604182572</v>
       </c>
       <c r="F9">
-        <v>19.06209227157797</v>
+        <v>18.48647997618188</v>
       </c>
       <c r="G9">
-        <v>24.10407160507931</v>
+        <v>22.91219264816899</v>
       </c>
       <c r="H9">
-        <v>1.584790875523913</v>
+        <v>1.59986317741651</v>
       </c>
       <c r="I9">
-        <v>2.732000039046649</v>
+        <v>2.761046768230865</v>
       </c>
       <c r="J9">
-        <v>8.77471787101724</v>
+        <v>9.032935252329331</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.6969143784328</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>8.767541501856064</v>
       </c>
       <c r="N9">
-        <v>6.996538695036008</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>12.81394314036434</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.49414446075533</v>
+        <v>7.090841098365937</v>
       </c>
       <c r="Q9">
-        <v>14.74926675909178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.70715376319818</v>
+      </c>
+      <c r="R9">
+        <v>12.54286322427061</v>
+      </c>
+      <c r="S9">
+        <v>14.29568567649591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.55191627184515</v>
+        <v>22.10162242522031</v>
       </c>
       <c r="C10">
-        <v>14.5728911919074</v>
+        <v>14.88460108024112</v>
       </c>
       <c r="D10">
-        <v>5.420385040575168</v>
+        <v>5.563256256439622</v>
       </c>
       <c r="E10">
-        <v>9.487749156574619</v>
+        <v>9.313381409739193</v>
       </c>
       <c r="F10">
-        <v>19.88424935107739</v>
+        <v>19.15001527126569</v>
       </c>
       <c r="G10">
-        <v>25.20945506921546</v>
+        <v>24.41560117691616</v>
       </c>
       <c r="H10">
-        <v>1.861209358094169</v>
+        <v>1.854406916851688</v>
       </c>
       <c r="I10">
-        <v>2.963381040831945</v>
+        <v>2.966657748767733</v>
       </c>
       <c r="J10">
-        <v>8.830128844200193</v>
+        <v>8.859218687348596</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.39937524024486</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>8.895084729689733</v>
       </c>
       <c r="N10">
-        <v>7.166400939372089</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>13.58383029280508</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.39316984218218</v>
+        <v>7.256662837938928</v>
       </c>
       <c r="Q10">
-        <v>15.06489325986212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>13.4513271075845</v>
+      </c>
+      <c r="R10">
+        <v>12.49761849631819</v>
+      </c>
+      <c r="S10">
+        <v>14.48785935852087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.94505673989473</v>
+        <v>22.45568568540362</v>
       </c>
       <c r="C11">
-        <v>15.42546939006106</v>
+        <v>15.71715154331061</v>
       </c>
       <c r="D11">
-        <v>5.710504294655478</v>
+        <v>5.885588959946888</v>
       </c>
       <c r="E11">
-        <v>9.285639872009877</v>
+        <v>9.157129888914701</v>
       </c>
       <c r="F11">
-        <v>19.45472474974291</v>
+        <v>18.60199443510223</v>
       </c>
       <c r="G11">
-        <v>24.27236960399074</v>
+        <v>24.56933660002951</v>
       </c>
       <c r="H11">
-        <v>2.785339072635137</v>
+        <v>2.774705347183565</v>
       </c>
       <c r="I11">
-        <v>3.034374485761814</v>
+        <v>3.029102914942992</v>
       </c>
       <c r="J11">
-        <v>8.599303116015074</v>
+        <v>8.244349709502306</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.91108282842751</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.478027962863491</v>
       </c>
       <c r="N11">
-        <v>6.468438118983171</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>13.11545367676526</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.51521774295063</v>
+        <v>6.541573002197384</v>
       </c>
       <c r="Q11">
-        <v>14.57522756944485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.96678127464324</v>
+      </c>
+      <c r="R11">
+        <v>12.66900202986925</v>
+      </c>
+      <c r="S11">
+        <v>13.91352939502099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.93466616631314</v>
+        <v>22.44730930938967</v>
       </c>
       <c r="C12">
-        <v>16.0047995980038</v>
+        <v>16.25946113006447</v>
       </c>
       <c r="D12">
-        <v>5.88945391364266</v>
+        <v>6.074868042447052</v>
       </c>
       <c r="E12">
-        <v>9.358807014305452</v>
+        <v>9.263993944243774</v>
       </c>
       <c r="F12">
-        <v>18.93463123842753</v>
+        <v>18.05815839456929</v>
       </c>
       <c r="G12">
-        <v>23.27958079546487</v>
+        <v>24.13012588425978</v>
       </c>
       <c r="H12">
-        <v>4.085145555872174</v>
+        <v>4.076973337035705</v>
       </c>
       <c r="I12">
-        <v>3.045058087546501</v>
+        <v>3.037015052853763</v>
       </c>
       <c r="J12">
-        <v>8.397370439667624</v>
+        <v>7.919493473012067</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.61033207617651</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.126632155996132</v>
       </c>
       <c r="N12">
-        <v>5.917709056147569</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>12.55698748565254</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.654894385094</v>
+        <v>5.976224404979765</v>
       </c>
       <c r="Q12">
-        <v>14.10719847436792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.40683282479549</v>
+      </c>
+      <c r="R12">
+        <v>12.83144219837514</v>
+      </c>
+      <c r="S12">
+        <v>13.4353404101933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.5942207768597</v>
+        <v>22.15197505212609</v>
       </c>
       <c r="C13">
-        <v>16.44009619142814</v>
+        <v>16.65957728467154</v>
       </c>
       <c r="D13">
-        <v>6.002292107907452</v>
+        <v>6.1752808490886</v>
       </c>
       <c r="E13">
-        <v>9.629856652036533</v>
+        <v>9.564900825322688</v>
       </c>
       <c r="F13">
-        <v>18.27047074713874</v>
+        <v>17.47267268370877</v>
       </c>
       <c r="G13">
-        <v>22.10530162640641</v>
+        <v>22.92401885063563</v>
       </c>
       <c r="H13">
-        <v>5.447016423372046</v>
+        <v>5.450919356093355</v>
       </c>
       <c r="I13">
-        <v>3.014184998264325</v>
+        <v>3.010022774840354</v>
       </c>
       <c r="J13">
-        <v>8.194918041265771</v>
+        <v>7.825322429656947</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.40995018597564</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.801651342174027</v>
       </c>
       <c r="N13">
-        <v>5.468765905226275</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>11.87617403900879</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.81471246232829</v>
+        <v>5.514882518888665</v>
       </c>
       <c r="Q13">
-        <v>13.59808170594276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.740090025812</v>
+      </c>
+      <c r="R13">
+        <v>12.98788630504788</v>
+      </c>
+      <c r="S13">
+        <v>12.99597393626362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.19780275249263</v>
+        <v>21.80689479343202</v>
       </c>
       <c r="C14">
-        <v>16.69022004610099</v>
+        <v>16.886146946573</v>
       </c>
       <c r="D14">
-        <v>6.053705538507465</v>
+        <v>6.207486390633866</v>
       </c>
       <c r="E14">
-        <v>9.928989183467175</v>
+        <v>9.883697289122006</v>
       </c>
       <c r="F14">
-        <v>17.72895398650347</v>
+        <v>17.03165026631659</v>
       </c>
       <c r="G14">
-        <v>21.18027388076488</v>
+        <v>21.71941053672819</v>
       </c>
       <c r="H14">
-        <v>6.474589196828941</v>
+        <v>6.476849337084539</v>
       </c>
       <c r="I14">
-        <v>2.97500137367182</v>
+        <v>2.976866709673737</v>
       </c>
       <c r="J14">
-        <v>8.051702348025586</v>
+        <v>7.847944178958248</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.30778287639213</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.589047793111625</v>
       </c>
       <c r="N14">
-        <v>5.229968308406479</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>11.3356062450776</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.93691102147756</v>
+        <v>5.268871034518886</v>
       </c>
       <c r="Q14">
-        <v>13.21781884256302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.21615799076906</v>
+      </c>
+      <c r="R14">
+        <v>13.09479958612569</v>
+      </c>
+      <c r="S14">
+        <v>12.69867511637772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.02388410278731</v>
+        <v>21.65411867048818</v>
       </c>
       <c r="C15">
-        <v>16.7256314941162</v>
+        <v>16.9170151066377</v>
       </c>
       <c r="D15">
-        <v>6.053272537572962</v>
+        <v>6.197873860919893</v>
       </c>
       <c r="E15">
-        <v>10.00962851491451</v>
+        <v>9.970053206529375</v>
       </c>
       <c r="F15">
-        <v>17.55968314650625</v>
+        <v>16.90627338234184</v>
       </c>
       <c r="G15">
-        <v>20.90386548403905</v>
+        <v>21.26516023078107</v>
       </c>
       <c r="H15">
-        <v>6.712081696918741</v>
+        <v>6.713746110944873</v>
       </c>
       <c r="I15">
-        <v>2.957585108163376</v>
+        <v>2.962868464464603</v>
       </c>
       <c r="J15">
-        <v>8.015355738254062</v>
+        <v>7.891036810726026</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.29573417825579</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.540622010305325</v>
       </c>
       <c r="N15">
-        <v>5.183494344122552</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>11.17601737303355</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.96957471803125</v>
+        <v>5.221520580753029</v>
       </c>
       <c r="Q15">
-        <v>13.11241871018606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.06350533819246</v>
+      </c>
+      <c r="R15">
+        <v>13.11857630396917</v>
+      </c>
+      <c r="S15">
+        <v>12.62792930166782</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.33405889486696</v>
+        <v>21.03738487264445</v>
       </c>
       <c r="C16">
-        <v>16.37781252864738</v>
+        <v>16.5735528742968</v>
       </c>
       <c r="D16">
-        <v>5.908777296080904</v>
+        <v>6.015637744843857</v>
       </c>
       <c r="E16">
-        <v>9.915248628435878</v>
+        <v>9.885412157853986</v>
       </c>
       <c r="F16">
-        <v>17.29742804058746</v>
+        <v>16.80453090869873</v>
       </c>
       <c r="G16">
-        <v>20.58429941669283</v>
+        <v>20.0482905139028</v>
       </c>
       <c r="H16">
-        <v>6.498660396340607</v>
+        <v>6.497659169645111</v>
       </c>
       <c r="I16">
-        <v>2.867005116453489</v>
+        <v>2.886352670156077</v>
       </c>
       <c r="J16">
-        <v>8.026597020175078</v>
+        <v>8.239242638154238</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.43874969622797</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>7.599399017388802</v>
       </c>
       <c r="N16">
-        <v>5.192418971314165</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>10.95054597595512</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.96665082432531</v>
+        <v>5.238497349966694</v>
       </c>
       <c r="Q16">
-        <v>13.0574149441639</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.86203263290746</v>
+      </c>
+      <c r="R16">
+        <v>13.0725604819626</v>
+      </c>
+      <c r="S16">
+        <v>12.69173211742508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.01426795885705</v>
+        <v>20.73897256313866</v>
       </c>
       <c r="C17">
-        <v>15.96920740781361</v>
+        <v>16.17252672863635</v>
       </c>
       <c r="D17">
-        <v>5.767527992703906</v>
+        <v>5.860036232731168</v>
       </c>
       <c r="E17">
-        <v>9.664903616515245</v>
+        <v>9.62880831547173</v>
       </c>
       <c r="F17">
-        <v>17.39374496781568</v>
+        <v>16.95143519834224</v>
       </c>
       <c r="G17">
-        <v>20.84848667591105</v>
+        <v>19.90223181100196</v>
       </c>
       <c r="H17">
-        <v>5.755367080612485</v>
+        <v>5.752527544889766</v>
       </c>
       <c r="I17">
-        <v>2.818478922771639</v>
+        <v>2.845003655514379</v>
       </c>
       <c r="J17">
-        <v>8.111914567412411</v>
+        <v>8.463536934086607</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.60981567815367</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.746300660516921</v>
       </c>
       <c r="N17">
-        <v>5.312822189397851</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>11.07446959086299</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.90122444982554</v>
+        <v>5.368161744115708</v>
       </c>
       <c r="Q17">
-        <v>13.2209561967865</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.99288060840798</v>
+      </c>
+      <c r="R17">
+        <v>12.98725656686963</v>
+      </c>
+      <c r="S17">
+        <v>12.88927335920311</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.99955322267655</v>
+        <v>20.7121203435017</v>
       </c>
       <c r="C18">
-        <v>15.45695347134878</v>
+        <v>15.67839457624304</v>
       </c>
       <c r="D18">
-        <v>5.612425194715489</v>
+        <v>5.703647087860579</v>
       </c>
       <c r="E18">
-        <v>9.358236689335147</v>
+        <v>9.299367268015228</v>
       </c>
       <c r="F18">
-        <v>17.82062032061905</v>
+        <v>17.36649946644632</v>
       </c>
       <c r="G18">
-        <v>21.66654367833094</v>
+        <v>20.50106637755579</v>
       </c>
       <c r="H18">
-        <v>4.490691637452472</v>
+        <v>4.486352900803745</v>
       </c>
       <c r="I18">
-        <v>2.798645803234475</v>
+        <v>2.826411154657413</v>
       </c>
       <c r="J18">
-        <v>8.273813594424686</v>
+        <v>8.667819379277205</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.84684786343299</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.999454450991294</v>
       </c>
       <c r="N18">
-        <v>5.613858764098896</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>11.51747090280955</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.77871721208222</v>
+        <v>5.680376858143958</v>
       </c>
       <c r="Q18">
-        <v>13.59924195351104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.43281898936156</v>
+      </c>
+      <c r="R18">
+        <v>12.8562286918517</v>
+      </c>
+      <c r="S18">
+        <v>13.25336141849133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.20727012323226</v>
+        <v>20.88614858463981</v>
       </c>
       <c r="C19">
-        <v>14.95724618861677</v>
+        <v>15.20588468329184</v>
       </c>
       <c r="D19">
-        <v>5.468180295261147</v>
+        <v>5.56601203655902</v>
       </c>
       <c r="E19">
-        <v>9.205747698396403</v>
+        <v>9.108534626277532</v>
       </c>
       <c r="F19">
-        <v>18.43710624444828</v>
+        <v>17.93383827918504</v>
       </c>
       <c r="G19">
-        <v>22.79116041080272</v>
+        <v>21.49895848430762</v>
       </c>
       <c r="H19">
-        <v>2.980451585566377</v>
+        <v>2.974873190658488</v>
       </c>
       <c r="I19">
-        <v>2.814808092463672</v>
+        <v>2.84149472442502</v>
       </c>
       <c r="J19">
-        <v>8.474256977304991</v>
+        <v>8.858048588103928</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.1149385673742</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.311240120820681</v>
       </c>
       <c r="N19">
-        <v>6.126519857107405</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>12.17085994292128</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.63874151605936</v>
+        <v>6.204679248064348</v>
       </c>
       <c r="Q19">
-        <v>14.09229082462942</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.07704079806591</v>
+      </c>
+      <c r="R19">
+        <v>12.71388915678939</v>
+      </c>
+      <c r="S19">
+        <v>13.70338955255439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.05908816249746</v>
+        <v>21.64952381014904</v>
       </c>
       <c r="C20">
-        <v>14.4527504637913</v>
+        <v>14.75421162369124</v>
       </c>
       <c r="D20">
-        <v>5.351310837746574</v>
+        <v>5.475410721098579</v>
       </c>
       <c r="E20">
-        <v>9.460697421894018</v>
+        <v>9.291106298827795</v>
       </c>
       <c r="F20">
-        <v>19.60647921439395</v>
+        <v>18.95731711486837</v>
       </c>
       <c r="G20">
-        <v>24.80825845499259</v>
+        <v>23.61851969400131</v>
       </c>
       <c r="H20">
-        <v>1.785416660666966</v>
+        <v>1.785648125310591</v>
       </c>
       <c r="I20">
-        <v>2.913649714221618</v>
+        <v>2.928490955278588</v>
       </c>
       <c r="J20">
-        <v>8.794484223673251</v>
+        <v>9.017496297199051</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.45562760616586</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>8.831244980112512</v>
       </c>
       <c r="N20">
-        <v>7.123581843171286</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>13.37154886217327</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.42906343772036</v>
+        <v>7.215633417510106</v>
       </c>
       <c r="Q20">
-        <v>14.93113436561712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.25242477873116</v>
+      </c>
+      <c r="R20">
+        <v>12.51521160128615</v>
+      </c>
+      <c r="S20">
+        <v>14.42130477718014</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.42315016142763</v>
+        <v>22.8547768473041</v>
       </c>
       <c r="C21">
-        <v>14.86320803545749</v>
+        <v>15.17468891355644</v>
       </c>
       <c r="D21">
-        <v>5.555424565947908</v>
+        <v>5.75466626342803</v>
       </c>
       <c r="E21">
-        <v>9.581236731278482</v>
+        <v>9.392651076935039</v>
       </c>
       <c r="F21">
-        <v>20.3854454404768</v>
+        <v>19.38150939270851</v>
       </c>
       <c r="G21">
-        <v>25.92150497741758</v>
+        <v>26.52952247474677</v>
       </c>
       <c r="H21">
-        <v>2.003966564039527</v>
+        <v>1.980693405486011</v>
       </c>
       <c r="I21">
-        <v>3.092387351889926</v>
+        <v>3.079972738492508</v>
       </c>
       <c r="J21">
-        <v>8.890538311501341</v>
+        <v>8.280419489296357</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.2362906981345</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>8.952519603497256</v>
       </c>
       <c r="N21">
-        <v>7.397109192064848</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>14.08371763732283</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.32951018517419</v>
+        <v>7.484653072448405</v>
       </c>
       <c r="Q21">
-        <v>15.29994161602631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.90897514108482</v>
+      </c>
+      <c r="R21">
+        <v>12.4847484066217</v>
+      </c>
+      <c r="S21">
+        <v>14.50830155001343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.26768644922068</v>
+        <v>23.59698098575492</v>
       </c>
       <c r="C22">
-        <v>15.13401988291862</v>
+        <v>15.44396924366929</v>
       </c>
       <c r="D22">
-        <v>5.688900629327937</v>
+        <v>5.938322770073293</v>
       </c>
       <c r="E22">
-        <v>9.638510633891057</v>
+        <v>9.442521101693874</v>
       </c>
       <c r="F22">
-        <v>20.8676388370268</v>
+        <v>19.62322502932581</v>
       </c>
       <c r="G22">
-        <v>26.60004451879148</v>
+        <v>28.47374016697841</v>
       </c>
       <c r="H22">
-        <v>2.140467603365583</v>
+        <v>2.10230772440435</v>
       </c>
       <c r="I22">
-        <v>3.200990900714869</v>
+        <v>3.170001834508569</v>
       </c>
       <c r="J22">
-        <v>8.949219416031005</v>
+        <v>7.807935595431001</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.08478962780526</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.027794312555205</v>
       </c>
       <c r="N22">
-        <v>7.522076541325068</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.49036709884819</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.27093738396193</v>
+        <v>7.606157039310039</v>
       </c>
       <c r="Q22">
-        <v>15.52647184034117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.27845287126409</v>
+      </c>
+      <c r="R22">
+        <v>12.47543914583495</v>
+      </c>
+      <c r="S22">
+        <v>14.54023303695856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.83485106042623</v>
+        <v>23.22930739772863</v>
       </c>
       <c r="C23">
-        <v>14.9702333213606</v>
+        <v>15.29038494858587</v>
       </c>
       <c r="D23">
-        <v>5.614151380810851</v>
+        <v>5.830849944998338</v>
       </c>
       <c r="E23">
-        <v>9.611460118685525</v>
+        <v>9.418493324378156</v>
       </c>
       <c r="F23">
-        <v>20.63186154466142</v>
+        <v>19.54606052595173</v>
       </c>
       <c r="G23">
-        <v>26.2765212295595</v>
+        <v>27.26657806197982</v>
       </c>
       <c r="H23">
-        <v>2.068757659780823</v>
+        <v>2.03924525978495</v>
       </c>
       <c r="I23">
-        <v>3.139291426103937</v>
+        <v>3.117571068634669</v>
       </c>
       <c r="J23">
-        <v>8.924659220668177</v>
+        <v>8.138609984670877</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.18473124162249</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.0138446560047</v>
       </c>
       <c r="N23">
-        <v>7.453498668107549</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.27855876586562</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.29808885264275</v>
+        <v>7.539884612279453</v>
       </c>
       <c r="Q23">
-        <v>15.42235371936592</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.09107032158282</v>
+      </c>
+      <c r="R23">
+        <v>12.47154668633369</v>
+      </c>
+      <c r="S23">
+        <v>14.56409091359465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.09199316513862</v>
+        <v>21.67988474022349</v>
       </c>
       <c r="C24">
-        <v>14.36823234365624</v>
+        <v>14.66798014547924</v>
       </c>
       <c r="D24">
-        <v>5.328145919694306</v>
+        <v>5.452183178160069</v>
       </c>
       <c r="E24">
-        <v>9.501641550843852</v>
+        <v>9.3266216865409</v>
       </c>
       <c r="F24">
-        <v>19.69899661558583</v>
+        <v>19.0466907893945</v>
       </c>
       <c r="G24">
-        <v>24.97916198360589</v>
+        <v>23.76536843561489</v>
       </c>
       <c r="H24">
-        <v>1.789817083658352</v>
+        <v>1.789960132658059</v>
       </c>
       <c r="I24">
-        <v>2.907464060505818</v>
+        <v>2.920014512244388</v>
       </c>
       <c r="J24">
-        <v>8.82665421952963</v>
+        <v>9.052899036647256</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.5080974274393</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>8.889337494132203</v>
       </c>
       <c r="N24">
-        <v>7.192157269451601</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>13.44021415512599</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.41236128730182</v>
+        <v>7.285299258562233</v>
       </c>
       <c r="Q24">
-        <v>15.00842005067421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.32045026215725</v>
+      </c>
+      <c r="R24">
+        <v>12.4962284019766</v>
+      </c>
+      <c r="S24">
+        <v>14.49525149669821</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.03743392130909</v>
+        <v>19.7188682087723</v>
       </c>
       <c r="C25">
-        <v>13.69046136585642</v>
+        <v>13.83708127361565</v>
       </c>
       <c r="D25">
-        <v>5.000421961227087</v>
+        <v>5.087560217071347</v>
       </c>
       <c r="E25">
-        <v>9.378994596080817</v>
+        <v>9.227696818965953</v>
       </c>
       <c r="F25">
-        <v>18.68530996062279</v>
+        <v>18.16405706027741</v>
       </c>
       <c r="G25">
-        <v>23.56254848968927</v>
+        <v>22.2810451465386</v>
       </c>
       <c r="H25">
-        <v>1.647515902085407</v>
+        <v>1.623592782607456</v>
       </c>
       <c r="I25">
-        <v>2.649153706685361</v>
+        <v>2.690132923712505</v>
       </c>
       <c r="J25">
-        <v>8.734494701140678</v>
+        <v>9.05290178257202</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.76992122864199</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>8.693142852834612</v>
       </c>
       <c r="N25">
-        <v>6.900311442370737</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>12.47403775957379</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.54561797422848</v>
+        <v>6.995752531062852</v>
       </c>
       <c r="Q25">
-        <v>14.5804480763714</v>
+        <v>12.37622833894491</v>
+      </c>
+      <c r="R25">
+        <v>12.57660893592395</v>
+      </c>
+      <c r="S25">
+        <v>14.16873108352792</v>
       </c>
     </row>
   </sheetData>
